--- a/Flight Payload/Perovskite Performance/P2_Assembled/X016_PostVibe/9Dec2023.xlsx
+++ b/Flight Payload/Perovskite Performance/P2_Assembled/X016_PostVibe/9Dec2023.xlsx
@@ -504,7 +504,7 @@
         <v>28.35116467141285</v>
       </c>
       <c r="E2" t="n">
-        <v>2160.948862701427</v>
+        <v>21.60948862701427</v>
       </c>
       <c r="F2" t="n">
         <v>1.644367550941945</v>
@@ -548,7 +548,7 @@
         <v>26.17030585053494</v>
       </c>
       <c r="E3" t="n">
-        <v>1980.869790809641</v>
+        <v>19.80869790809641</v>
       </c>
       <c r="F3" t="n">
         <v>1.517877739331027</v>
@@ -680,7 +680,7 @@
         <v>28.35116467141285</v>
       </c>
       <c r="E6" t="n">
-        <v>1938.663758335003</v>
+        <v>19.38663758335003</v>
       </c>
       <c r="F6" t="n">
         <v>1.644367550941945</v>
@@ -724,7 +724,7 @@
         <v>28.35116467141285</v>
       </c>
       <c r="E7" t="n">
-        <v>1823.300602904329</v>
+        <v>18.23300602904328</v>
       </c>
       <c r="F7" t="n">
         <v>1.644367550941945</v>
@@ -856,7 +856,7 @@
         <v>30.53202349229077</v>
       </c>
       <c r="E10" t="n">
-        <v>1764.212157439836</v>
+        <v>17.64212157439836</v>
       </c>
       <c r="F10" t="n">
         <v>1.770857362552865</v>
@@ -900,7 +900,7 @@
         <v>26.17030585053494</v>
       </c>
       <c r="E11" t="n">
-        <v>1795.163247921237</v>
+        <v>17.95163247921236</v>
       </c>
       <c r="F11" t="n">
         <v>1.517877739331027</v>
@@ -944,7 +944,7 @@
         <v>30.53202349229077</v>
       </c>
       <c r="E12" t="n">
-        <v>1975.242319813022</v>
+        <v>19.75242319813022</v>
       </c>
       <c r="F12" t="n">
         <v>1.770857362552865</v>
@@ -988,7 +988,7 @@
         <v>28.35116467141285</v>
       </c>
       <c r="E13" t="n">
-        <v>2011.820881291041</v>
+        <v>20.11820881291041</v>
       </c>
       <c r="F13" t="n">
         <v>1.644367550941945</v>
